--- a/src/main/resources/Stat.xlsx
+++ b/src/main/resources/Stat.xlsx
@@ -71,7 +71,7 @@
     <t>[Московский государственный университет, Московкий нулевой университет, Неизвестный университет]</t>
   </si>
   <si>
-    <t>Профиль, не извесный системе</t>
+    <t>Профиль, не известный системе</t>
   </si>
   <si>
     <t>[Московкий нулевой университет]</t>
@@ -94,7 +94,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,6 +130,13 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="31.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.4765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="34.5390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.08203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="151.61328125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
